--- a/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-ck-test-2018-2019-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-ck-test-2018-2019-model-k-10-old-configuration.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -152,123 +191,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0">
-        <v>52.812381890604293</v>
+        <v>53.857008191017108</v>
       </c>
       <c r="C2" s="0">
-        <v>0.52513092895218239</v>
+        <v>0.53551799274112422</v>
       </c>
       <c r="D2" s="0">
-        <v>37.592175456983888</v>
+        <v>38.300452914555407</v>
       </c>
       <c r="E2" s="0">
-        <v>0.39098204708450646</v>
+        <v>0.40660222850719541</v>
       </c>
       <c r="F2" s="0">
-        <v>0.62528557242631666</v>
+        <v>0.63765369010709516</v>
       </c>
       <c r="G2" s="0">
-        <v>0.57806715424142596</v>
+        <v>0.58895856792883605</v>
       </c>
       <c r="H2" s="0">
-        <v>0.60901795291549354</v>
+        <v>0.59339777149280459</v>
       </c>
       <c r="I2" s="0">
-        <v>0.78218210286181222</v>
+        <v>0.77094371092881409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0">
-        <v>54.830054639882292</v>
+        <v>52.876684427421708</v>
       </c>
       <c r="C3" s="0">
-        <v>0.54519331446141006</v>
+        <v>0.52577031028065291</v>
       </c>
       <c r="D3" s="0">
-        <v>37.37818645799836</v>
+        <v>35.909416643758128</v>
       </c>
       <c r="E3" s="0">
-        <v>0.42142729775364929</v>
+        <v>0.39193471924465073</v>
       </c>
       <c r="F3" s="0">
-        <v>0.64917432000476516</v>
+        <v>0.62604689859838036</v>
       </c>
       <c r="G3" s="0">
-        <v>0.57477657554575867</v>
+        <v>0.5521908226215867</v>
       </c>
       <c r="H3" s="0">
-        <v>0.57857270224635071</v>
+        <v>0.60806528075534927</v>
       </c>
       <c r="I3" s="0">
-        <v>0.76614219744200973</v>
+        <v>0.78305083475347004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0">
-        <v>53.921085485817343</v>
+        <v>57.191976264880665</v>
       </c>
       <c r="C4" s="0">
-        <v>0.53615513441394047</v>
+        <v>0.56867868006406064</v>
       </c>
       <c r="D4" s="0">
-        <v>39.174565851005525</v>
+        <v>38.288827173006716</v>
       </c>
       <c r="E4" s="0">
-        <v>0.40757032795484033</v>
+        <v>0.45851707546108361</v>
       </c>
       <c r="F4" s="0">
-        <v>0.63841234946924419</v>
+        <v>0.67713888934330424</v>
       </c>
       <c r="G4" s="0">
-        <v>0.60240008791316202</v>
+        <v>0.58877979510573397</v>
       </c>
       <c r="H4" s="0">
-        <v>0.59242967204515962</v>
+        <v>0.54148292453891633</v>
       </c>
       <c r="I4" s="0">
-        <v>0.76994003012187495</v>
+        <v>0.7390789588277753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0">
         <v>59.394167125108936</v>
